--- a/Evaluation_Matrics.xlsx
+++ b/Evaluation_Matrics.xlsx
@@ -497,7 +497,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,9 +919,15 @@
       <c r="A14" s="3">
         <v>0</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="1">
+        <v>790</v>
+      </c>
+      <c r="C14" s="1">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1">
+        <v>101</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="5">
         <v>3</v>
@@ -931,40 +937,46 @@
       </c>
       <c r="H14" s="1">
         <f>C15+D15+C16+D16</f>
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="I14" s="1">
         <f>B14</f>
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="J14" s="1">
         <f>C14+D14</f>
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="K14" s="1">
         <f>B15+B16</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="e">
+        <v>107</v>
+      </c>
+      <c r="L14" s="1">
         <f>I14/(I14+K14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="1" t="e">
+        <v>0.88071348940914163</v>
+      </c>
+      <c r="M14" s="1">
         <f>I14/(I14+J14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="1" t="e">
+        <v>0.84221748400852881</v>
+      </c>
+      <c r="N14" s="1">
         <f>(2*L14*M14)/(L14+M14)</f>
-        <v>#DIV/0!</v>
+        <v>0.86103542234332442</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>266</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6"/>
       <c r="G15" s="1" t="s">
@@ -972,40 +984,46 @@
       </c>
       <c r="H15" s="1">
         <f>B14+D14+B16+D16</f>
-        <v>0</v>
+        <v>1338</v>
       </c>
       <c r="I15" s="1">
         <f>C15</f>
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="J15" s="1">
         <f>B15+D15</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K15" s="1">
         <f>C16+C14</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="e">
+        <v>54</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" ref="L15:L16" si="6">I15/(I15+K15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="1" t="e">
+        <v>0.83125000000000004</v>
+      </c>
+      <c r="M15" s="1">
         <f t="shared" ref="M15:M16" si="7">I15/(I15+J15)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="1" t="e">
+        <v>0.86928104575163401</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" ref="N15:N16" si="8">(2*L15*M15)/(L15+M15)</f>
-        <v>#DIV/0!</v>
+        <v>0.84984025559105436</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="1">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>378</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="7"/>
       <c r="G16" s="1" t="s">
@@ -1013,31 +1031,31 @@
       </c>
       <c r="H16" s="1">
         <f>B14+C14+B15+C15</f>
-        <v>0</v>
+        <v>1141</v>
       </c>
       <c r="I16" s="1">
         <f>D16</f>
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="J16" s="1">
         <f>B16+C16</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K16" s="1">
         <f>D14+D15</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="e">
+        <v>103</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="1" t="e">
+        <v>0.78586278586278591</v>
+      </c>
+      <c r="M16" s="1">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="1" t="e">
+        <v>0.83259911894273131</v>
+      </c>
+      <c r="N16" s="1">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>0.80855614973262036</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
